--- a/data/trans_bre/IP21B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP21B-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-64,01; 0,0</t>
+          <t>-81,16; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 20,85</t>
+          <t>-13,22; 21,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 19,14</t>
+          <t>-15,92; 18,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,87; 15,61</t>
+          <t>-30,3; 14,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 28,18</t>
+          <t>-48,44; 28,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-78,83; 561,14</t>
+          <t>-77,47; 535,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,07; 396,42</t>
+          <t>-75,11; 347,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 396,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 49,25</t>
+          <t>-36,41; 49,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 62,81</t>
+          <t>-7,29; 62,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-60,89; 65,22</t>
+          <t>-59,66; 61,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 10,68</t>
+          <t>-14,36; 11,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 11,9</t>
+          <t>-18,15; 13,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 21,12</t>
+          <t>-19,1; 21,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 30,36</t>
+          <t>-31,1; 33,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,03; 227,57</t>
+          <t>-83,77; 242,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,14; 110,41</t>
+          <t>-71,14; 134,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-67,74; 194,88</t>
+          <t>-63,89; 214,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 426,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP21B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP21B-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-80,85; 0,0</t>
+          <t>-80,8; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-81,16; 0,0</t>
+          <t>-80,49; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,16</t>
+          <t>-14,28</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-49,35%</t>
+          <t>-48,68%</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 21,24</t>
+          <t>-11,71; 23,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 18,03</t>
+          <t>-15,91; 17,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 14,21</t>
+          <t>-30,7; 15,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 28,97</t>
+          <t>-46,29; 29,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,47; 535,61</t>
+          <t>-75,94; 606,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,11; 347,75</t>
+          <t>-75,94; 250,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>5,98%</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 49,33</t>
+          <t>-39,01; 48,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 62,44</t>
+          <t>-10,72; 63,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-59,66; 61,77</t>
+          <t>-63,58; 60,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>-5,24%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 11,38</t>
+          <t>-15,7; 9,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 13,69</t>
+          <t>-16,98; 12,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 21,25</t>
+          <t>-20,88; 22,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 33,76</t>
+          <t>-31,81; 31,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,77; 242,47</t>
+          <t>-84,34; 201,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,14; 134,08</t>
+          <t>-74,76; 121,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,89; 214,07</t>
+          <t>-64,46; 263,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 426,63</t>
+          <t>-94,78; 337,47</t>
         </is>
       </c>
     </row>
